--- a/TP1/tablas/22.xlsx
+++ b/TP1/tablas/22.xlsx
@@ -469,17 +469,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>111011111101010010011101110100</t>
+          <t>110111111111101110010101100111</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.877665476676378</v>
+        <v>0.7655070970350591</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001280392519526329</v>
+        <v>0.0004302871702627556</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4075100442575533</v>
+        <v>0.2192471784263435</v>
       </c>
     </row>
     <row r="3">
@@ -491,17 +491,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>111011111101010010111111011111</t>
+          <t>110111111111110101111010110010</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.8776692371485016</v>
+        <v>0.7655577013447894</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0385859126890426</v>
+        <v>0.04022746809695271</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7871148961539426</v>
+        <v>0.5377540570379942</v>
       </c>
     </row>
     <row r="4">
@@ -513,17 +513,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>111011111101010010111111011111</t>
+          <t>110111111111110101111010110111</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.8776692371485016</v>
+        <v>0.7655577094935038</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8558493780850606</v>
+        <v>0.5768111863966354</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8754853710060958</v>
+        <v>0.7277932274751817</v>
       </c>
     </row>
     <row r="5">
@@ -535,17 +535,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>111011111101010010111111011111</t>
+          <t>110111111111110101111010110111</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.8776692371485016</v>
+        <v>0.7655577094935038</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8776692371485016</v>
+        <v>0.5768111863966354</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8776692371485015</v>
+        <v>0.7466779934933582</v>
       </c>
     </row>
     <row r="6">
@@ -557,17 +557,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>111011111101010010111111011111</t>
+          <t>110111111111110101111010110111</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.8776692371485016</v>
+        <v>0.7655577094935038</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8776692371485016</v>
+        <v>0.7655577013447894</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8776692371485015</v>
+        <v>0.765557707863761</v>
       </c>
     </row>
     <row r="7">
@@ -579,17 +579,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>111011111101010010111111011111</t>
+          <t>110111111111110101111010110111</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.8776692371485016</v>
+        <v>0.7655577094935038</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8776692371485016</v>
+        <v>0.7655577094935038</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8776692371485015</v>
+        <v>0.7655577094935037</v>
       </c>
     </row>
     <row r="8">
@@ -601,17 +601,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>111011111101010010111111011111</t>
+          <t>110111111111110101111010110111</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.8776692371485016</v>
+        <v>0.7655577094935038</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8776692371485016</v>
+        <v>0.7655577094935038</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8776692371485015</v>
+        <v>0.7655577094935037</v>
       </c>
     </row>
     <row r="9">
@@ -623,17 +623,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>111011111101010010111111011111</t>
+          <t>110111111111110101111010110111</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.8776692371485016</v>
+        <v>0.7655577094935038</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8776692371485016</v>
+        <v>0.7655577094935038</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8776692371485015</v>
+        <v>0.7655577094935037</v>
       </c>
     </row>
     <row r="10">
@@ -645,17 +645,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>111011111101010010111111011111</t>
+          <t>110111111111110101111010110111</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.8776692371485016</v>
+        <v>0.7655577094935038</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8776692371485016</v>
+        <v>0.7655577094935038</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8776692371485015</v>
+        <v>0.7655577094935037</v>
       </c>
     </row>
     <row r="11">
@@ -667,17 +667,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>111011111101010010111111011111</t>
+          <t>110111111111110101111010110111</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.8776692371485016</v>
+        <v>0.7655577094935038</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8776692371485016</v>
+        <v>0.7655577094935038</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8776692371485015</v>
+        <v>0.7655577094935037</v>
       </c>
     </row>
     <row r="12">
@@ -689,17 +689,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>111011111101010010111111011111</t>
+          <t>110111111111110101111010110111</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.8776692371485016</v>
+        <v>0.7655577094935038</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8776692371485016</v>
+        <v>0.7655577094935038</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8776692371485015</v>
+        <v>0.7655577094935037</v>
       </c>
     </row>
     <row r="13">
@@ -711,17 +711,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>111011111101010010111111011111</t>
+          <t>110111111111110101111010110111</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.8776692371485016</v>
+        <v>0.7655577094935038</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8776692371485016</v>
+        <v>0.7655577094935038</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8776692371485015</v>
+        <v>0.7655577094935037</v>
       </c>
     </row>
     <row r="14">
@@ -733,17 +733,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>111011111101010010111111011111</t>
+          <t>110111111111110101111010110111</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.8776692371485016</v>
+        <v>0.7655577094935038</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8776692371485016</v>
+        <v>0.7655577094935038</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8776692371485015</v>
+        <v>0.7655577094935037</v>
       </c>
     </row>
     <row r="15">
@@ -755,17 +755,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>111011111101010010111111011111</t>
+          <t>110111111111110101111010110111</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.8776692371485016</v>
+        <v>0.7655577094935038</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8776692371485016</v>
+        <v>0.7655577094935038</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8776692371485015</v>
+        <v>0.7655577094935037</v>
       </c>
     </row>
     <row r="16">
@@ -777,17 +777,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>111011111101010010111111011111</t>
+          <t>110111111111110101111010110111</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.8776692371485016</v>
+        <v>0.7655577094935038</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8776692371485016</v>
+        <v>0.7655577094935038</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8776692371485015</v>
+        <v>0.7655577094935037</v>
       </c>
     </row>
     <row r="17">
@@ -799,17 +799,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>111011111101010010111111011111</t>
+          <t>110111111111110101111010110111</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.8776692371485016</v>
+        <v>0.7655577094935038</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8776692371485016</v>
+        <v>0.7655577094935038</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8776692371485015</v>
+        <v>0.7655577094935037</v>
       </c>
     </row>
     <row r="18">
@@ -821,17 +821,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>111011111101010010111111011111</t>
+          <t>110111111111110101111010110111</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.8776692371485016</v>
+        <v>0.7655577094935038</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8776692371485016</v>
+        <v>0.7655577094935038</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8776692371485015</v>
+        <v>0.7655577094935037</v>
       </c>
     </row>
     <row r="19">
@@ -843,17 +843,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>111011111101010010111111011111</t>
+          <t>110111111111110101111010110111</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.8776692371485016</v>
+        <v>0.7655577094935038</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8776692371485016</v>
+        <v>0.7655577094935038</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8776692371485015</v>
+        <v>0.7655577094935037</v>
       </c>
     </row>
     <row r="20">
@@ -865,17 +865,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>111011111101010010111111011111</t>
+          <t>110111111111110101111010110111</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.8776692371485016</v>
+        <v>0.7655577094935038</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8776692371485016</v>
+        <v>0.7655577094935038</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8776692371485015</v>
+        <v>0.7655577094935037</v>
       </c>
     </row>
     <row r="21">
@@ -887,17 +887,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>111011111101010010111111011111</t>
+          <t>110111111111110101111010110111</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.8776692371485016</v>
+        <v>0.7655577094935038</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8776692371485016</v>
+        <v>0.7655577094935038</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8776692371485015</v>
+        <v>0.7655577094935037</v>
       </c>
     </row>
   </sheetData>
